--- a/_temp_Speed tests.xlsx
+++ b/_temp_Speed tests.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23117"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="14960" yWindow="9520" windowWidth="25540" windowHeight="13400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>get field name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>rep</t>
   </si>
@@ -30,9 +27,6 @@
     <t>@</t>
   </si>
   <si>
-    <t>control</t>
-  </si>
-  <si>
     <t>@1 : just substitution</t>
   </si>
   <si>
@@ -48,40 +42,28 @@
     <t>the issue is clearly with @@.reserve</t>
   </si>
   <si>
-    <t>@3: reserve streamline 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> improved table parsing in @ and removed redundant pattern match in reserved</t>
-  </si>
-  <si>
-    <t>@3: reserve streamline 2</t>
-  </si>
-  <si>
-    <t>@3: reserve streamline 1b</t>
-  </si>
-  <si>
-    <t>yoink removed word assignment and evaluate directly. TAKES LONGER</t>
-  </si>
-  <si>
-    <t>put removed word in separate cf.TAKES LONGER</t>
-  </si>
-  <si>
-    <t>@3: reserve streamline 3</t>
-  </si>
-  <si>
-    <t>substituting pattern match. Oh crud, this gets slower as we keep adding comparisons.</t>
-  </si>
-  <si>
-    <t>next: how about segregating by first letter (choose char() - k), then doing much smaller tests…</t>
-  </si>
-  <si>
-    <t>subtests @ 99999 reps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     exact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     patternmatch</t>
+    <t>@4 with streamlined reserve cf</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>original :: baseline</t>
+  </si>
+  <si>
+    <t>after reserve streamlining</t>
+  </si>
+  <si>
+    <t>% @ baseline</t>
+  </si>
+  <si>
+    <t>statndard SQL functions</t>
+  </si>
+  <si>
+    <t>raw string</t>
+  </si>
+  <si>
+    <t>% raw string</t>
   </si>
 </sst>
 </file>
@@ -91,7 +73,14 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -116,11 +105,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color theme="4" tint="0.59999389629810485"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -141,44 +128,43 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="35">
+  <cellStyleXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -189,10 +175,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="31" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="31" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="35">
+  <cellStyles count="34">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -208,8 +203,7 @@
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -225,9 +219,9 @@
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="31" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -556,32 +550,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="27.5" customWidth="1"/>
     <col min="2" max="6" width="10.83203125" style="2"/>
-    <col min="8" max="8" width="96.83203125" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="12.5" style="9" customWidth="1"/>
+    <col min="10" max="10" width="96.83203125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="B1" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="J1" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="B2" s="3">
         <v>1</v>
       </c>
@@ -597,256 +593,235 @@
       <c r="F2" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="G4" s="2">
+        <f>AVERAGE(B4:F4)</f>
+        <v>0.62</v>
+      </c>
+      <c r="H4" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="E5" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="F5" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="G5" s="2">
+        <f>AVERAGE(B5:F5)</f>
+        <v>3.28</v>
+      </c>
+      <c r="H5" s="9">
+        <f>G5/G4</f>
+        <v>5.290322580645161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2">
+        <v>18.3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>18.5</v>
+      </c>
+      <c r="D7" s="2">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="E7" s="2">
+        <v>18.7</v>
+      </c>
+      <c r="F7" s="2">
+        <v>18.8</v>
+      </c>
+      <c r="G7" s="2">
+        <f>AVERAGE(B7:F7)</f>
+        <v>18.54</v>
+      </c>
+      <c r="H7" s="9">
+        <f>G7/G4</f>
+        <v>29.903225806451612</v>
+      </c>
+      <c r="I7" s="9">
+        <v>1</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="8" customFormat="1">
+      <c r="A8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2">
-        <v>18.3</v>
-      </c>
-      <c r="C6" s="2">
-        <v>18.5</v>
-      </c>
-      <c r="D6" s="2">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="E6" s="2">
-        <v>18.7</v>
-      </c>
-      <c r="F6" s="2">
-        <v>18.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="C8" s="7">
+        <v>3</v>
+      </c>
+      <c r="D8" s="7">
+        <v>3</v>
+      </c>
+      <c r="E8" s="7">
+        <v>3</v>
+      </c>
+      <c r="F8" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="G8" s="7">
+        <f t="shared" ref="G8:G11" si="0">AVERAGE(B8:F8)</f>
+        <v>3.02</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="12"/>
+    </row>
+    <row r="9" spans="1:10" s="8" customFormat="1">
+      <c r="A9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="C9" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="D9" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="E9" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="F9" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" si="0"/>
+        <v>4.2</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="12"/>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="2">
-        <v>3</v>
+        <v>16.5</v>
       </c>
       <c r="C10" s="2">
-        <v>3</v>
+        <v>16.7</v>
       </c>
       <c r="D10" s="2">
-        <v>3</v>
+        <v>16.5</v>
       </c>
       <c r="E10" s="2">
-        <v>3</v>
+        <v>16.8</v>
       </c>
       <c r="F10" s="2">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>16.5</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
+        <v>16.600000000000001</v>
+      </c>
+      <c r="H10" s="9">
+        <f>G10/G4</f>
+        <v>26.7741935483871</v>
+      </c>
+      <c r="I10" s="9">
+        <f>G10/G7</f>
+        <v>0.8953613807982741</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B11" s="2">
-        <v>4.2</v>
+        <v>11.3</v>
       </c>
       <c r="C11" s="2">
-        <v>4.2</v>
+        <v>11.4</v>
       </c>
       <c r="D11" s="2">
-        <v>4.2</v>
+        <v>11.5</v>
       </c>
       <c r="E11" s="2">
-        <v>4.2</v>
+        <v>11.6</v>
       </c>
       <c r="F11" s="2">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="2">
-        <v>16.5</v>
-      </c>
-      <c r="C12" s="2">
-        <v>16.7</v>
-      </c>
-      <c r="D12" s="2">
-        <v>16.5</v>
-      </c>
-      <c r="E12" s="2">
-        <v>16.8</v>
-      </c>
-      <c r="F12" s="2">
-        <v>16.5</v>
-      </c>
-      <c r="H12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="2">
-        <v>12</v>
-      </c>
-      <c r="C13" s="2">
-        <v>12</v>
-      </c>
-      <c r="D13" s="2">
-        <v>12</v>
-      </c>
-      <c r="E13" s="2">
-        <v>12</v>
-      </c>
-      <c r="F13" s="2">
-        <v>12</v>
-      </c>
-      <c r="H13" t="s">
+        <v>11.2</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
+        <v>11.4</v>
+      </c>
+      <c r="H11" s="9">
+        <f>G11/G4</f>
+        <v>18.387096774193548</v>
+      </c>
+      <c r="I11" s="9">
+        <f>G11/G7</f>
+        <v>0.61488673139158578</v>
+      </c>
+      <c r="J11" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2">
-        <v>12.1</v>
-      </c>
-      <c r="C14" s="2">
-        <v>12</v>
-      </c>
-      <c r="D14" s="2">
-        <v>12.1</v>
-      </c>
-      <c r="E14" s="2">
-        <v>12.1</v>
-      </c>
-      <c r="F14" s="2">
-        <v>12.1</v>
-      </c>
-      <c r="H14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="2">
-        <v>12.2</v>
-      </c>
-      <c r="C15">
-        <v>12.5</v>
-      </c>
-      <c r="D15" s="2">
-        <v>12.4</v>
-      </c>
-      <c r="E15" s="2">
-        <v>12.5</v>
-      </c>
-      <c r="F15" s="2">
-        <v>12.3</v>
-      </c>
-      <c r="H15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="H17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="2">
-        <v>11.1</v>
-      </c>
-      <c r="C19" s="2">
-        <v>11.1</v>
-      </c>
-      <c r="D19" s="2">
-        <v>11.1</v>
-      </c>
-      <c r="E19" s="2">
-        <v>11.1</v>
-      </c>
-      <c r="F19" s="2">
-        <v>11.1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="7">
-        <v>9.5</v>
-      </c>
-      <c r="C20" s="7">
-        <v>9.5</v>
-      </c>
-      <c r="D20" s="7">
-        <v>9.5</v>
-      </c>
-      <c r="E20" s="7">
-        <v>9.5</v>
-      </c>
-      <c r="F20" s="7">
-        <v>9.5</v>
-      </c>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1"/>
+      <c r="C13"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
